--- a/json-to-ts-enum/input/TrackInfo.xlsx
+++ b/json-to-ts-enum/input/TrackInfo.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ydc012/Work/Tools/tracker/input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A760F05-6E40-EC4E-BD2C-9E7EE84DCCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-31240" yWindow="940" windowWidth="33600" windowHeight="20500" xr2:uid="{C71A81CB-32B0-9443-A4FA-30CFFE20A970}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,298 +27,362 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="113">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
   <si>
     <t>LevelFund</t>
   </si>
   <si>
+    <t>等级基金界面打开</t>
+  </si>
+  <si>
     <t>SeasonBP</t>
   </si>
   <si>
+    <t>赛季BP界面打开</t>
+  </si>
+  <si>
+    <t>SeasonInBP</t>
+  </si>
+  <si>
+    <t>赛季BP2级界面打开</t>
+  </si>
+  <si>
     <t>SnakeGift</t>
   </si>
   <si>
+    <t>毒蛇礼包3界面打开</t>
+  </si>
+  <si>
     <t>ExternalMonthlyPass</t>
   </si>
   <si>
+    <t>场外月卡界面打开</t>
+  </si>
+  <si>
     <t>AArtifactBP</t>
   </si>
   <si>
+    <t>A圣物7日界面打开</t>
+  </si>
+  <si>
     <t>EpicGear</t>
   </si>
   <si>
+    <t>橙装礼包界面 打开</t>
+  </si>
+  <si>
     <t>DailyShop</t>
   </si>
   <si>
+    <t>每日商店界面打开</t>
+  </si>
+  <si>
     <t>LifetimeDiamond</t>
   </si>
   <si>
+    <t>终生钻石界面打开</t>
+  </si>
+  <si>
     <t>PetFactionChoice</t>
   </si>
   <si>
+    <t>流派自选礼包界面打开</t>
+  </si>
+  <si>
     <t>AArtifactReturn</t>
   </si>
   <si>
+    <t>A圣物返场界面打开</t>
+  </si>
+  <si>
+    <t>LevelEpicFund1</t>
+  </si>
+  <si>
+    <t>装备1基金界面打开</t>
+  </si>
+  <si>
+    <t>LevelEpicFund2</t>
+  </si>
+  <si>
+    <t>装备2基金界面打开</t>
+  </si>
+  <si>
     <t>EternalHammer</t>
   </si>
   <si>
+    <t>生命周期锤子礼包界面打开</t>
+  </si>
+  <si>
     <t>EventHammer</t>
   </si>
   <si>
+    <t>固定时间锤子礼包界面打开</t>
+  </si>
+  <si>
     <t>Artifact198A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198圣物+蛇礼包界面打开</t>
   </si>
   <si>
     <t>TowerFund</t>
   </si>
   <si>
+    <t>爬塔基金界面打开</t>
+  </si>
+  <si>
     <t>PetShop</t>
   </si>
   <si>
+    <t>宠物商店界面打开</t>
+  </si>
+  <si>
     <t>PetBP</t>
   </si>
   <si>
+    <t>宠物bp界面打开</t>
+  </si>
+  <si>
     <t>FactionPetShop</t>
   </si>
   <si>
+    <t>流派宠物商店界面打开</t>
+  </si>
+  <si>
     <t>FactionPetCumulativeDraw</t>
   </si>
   <si>
+    <t>流派宠物UP累抽界面打开</t>
+  </si>
+  <si>
     <t>ArenaStore</t>
   </si>
   <si>
+    <t>竞技场商店界面打开</t>
+  </si>
+  <si>
     <t>ArenaTicket</t>
   </si>
   <si>
+    <t>竞技场入场券界面打开</t>
+  </si>
+  <si>
     <t>ArenaVIP</t>
   </si>
   <si>
+    <t>竞技场vip界面打开</t>
+  </si>
+  <si>
     <t>ArenaSpinSidebar</t>
   </si>
   <si>
+    <t>竞技场大转盘侧边栏打开</t>
+  </si>
+  <si>
     <t>Miningvip</t>
   </si>
   <si>
+    <t>挖矿礼包打开</t>
+  </si>
+  <si>
     <t>MiningShop</t>
   </si>
   <si>
+    <t>挖矿商店打开</t>
+  </si>
+  <si>
     <t>ChapterFund</t>
   </si>
   <si>
+    <t>章节基金界面打开</t>
+  </si>
+  <si>
     <t>CarnivalShop</t>
   </si>
   <si>
+    <t>嘉年华商店界面</t>
+  </si>
+  <si>
     <t>BingoShop</t>
   </si>
   <si>
+    <t>bingo商店界面</t>
+  </si>
+  <si>
     <t>MonopolyShop</t>
   </si>
   <si>
+    <t>大富翁商店界面</t>
+  </si>
+  <si>
     <t>FlipShop</t>
   </si>
   <si>
+    <t>翻牌商店主界面</t>
+  </si>
+  <si>
     <t>StarterPack6</t>
   </si>
   <si>
+    <t>6元新手礼包界面打开</t>
+  </si>
+  <si>
     <t>StarterPack30</t>
   </si>
   <si>
+    <t>30元新手礼包界面打开</t>
+  </si>
+  <si>
     <t>StarterPack68</t>
   </si>
   <si>
+    <t>68元新手礼包界面打开</t>
+  </si>
+  <si>
     <t>SArtifactReturn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣物返场礼包界面打开</t>
   </si>
   <si>
     <t>ChapterPack</t>
   </si>
   <si>
+    <t>章节礼包界面弹出</t>
+  </si>
+  <si>
     <t>RevengePack</t>
   </si>
   <si>
+    <t>复仇礼包界面弹出</t>
+  </si>
+  <si>
     <t>InAdvancedMonthlyPass</t>
   </si>
   <si>
+    <t>场内高级月卡界面打开</t>
+  </si>
+  <si>
     <t>InSupremeMonthlyPass</t>
   </si>
   <si>
+    <t>场内至尊月卡界面打开</t>
+  </si>
+  <si>
     <t>SartifactBP98</t>
   </si>
   <si>
+    <t>98元S圣物bp界面打开</t>
+  </si>
+  <si>
     <t>SartifactBP128</t>
   </si>
   <si>
-    <t>等级基金界面打开</t>
-  </si>
-  <si>
-    <t>赛季BP界面打开</t>
-  </si>
-  <si>
-    <t>毒蛇礼包3界面打开</t>
-  </si>
-  <si>
-    <t>场外月卡界面打开</t>
-  </si>
-  <si>
-    <t>A圣物7日界面打开</t>
-  </si>
-  <si>
-    <t>橙装礼包界面 打开</t>
-  </si>
-  <si>
-    <t>每日商店界面打开</t>
-  </si>
-  <si>
-    <t>终生钻石界面打开</t>
-  </si>
-  <si>
-    <t>流派自选礼包界面打开</t>
-  </si>
-  <si>
-    <t>A圣物返场界面打开</t>
-  </si>
-  <si>
-    <t>固定时间锤子礼包界面打开</t>
-  </si>
-  <si>
-    <t>198圣物+蛇礼包界面打开</t>
-  </si>
-  <si>
-    <t>爬塔基金界面打开</t>
-  </si>
-  <si>
-    <t>宠物商店界面打开</t>
-  </si>
-  <si>
-    <t>宠物bp界面打开</t>
-  </si>
-  <si>
-    <t>流派宠物商店界面打开</t>
-  </si>
-  <si>
-    <t>流派宠物UP累抽界面打开</t>
-  </si>
-  <si>
-    <t>竞技场商店界面打开</t>
-  </si>
-  <si>
-    <t>竞技场入场券界面打开</t>
-  </si>
-  <si>
-    <t>竞技场vip界面打开</t>
-  </si>
-  <si>
-    <t>竞技场大转盘侧边栏打开</t>
-  </si>
-  <si>
-    <t>挖矿礼包打开</t>
-  </si>
-  <si>
-    <t>挖矿商店打开</t>
-  </si>
-  <si>
-    <t>章节基金界面打开</t>
-  </si>
-  <si>
-    <t>嘉年华商店界面</t>
-  </si>
-  <si>
-    <t>bingo商店界面</t>
-  </si>
-  <si>
-    <t>大富翁商店界面</t>
-  </si>
-  <si>
-    <t>翻牌商店主界面</t>
-  </si>
-  <si>
-    <t>6元新手礼包界面打开</t>
-  </si>
-  <si>
-    <t>30元新手礼包界面打开</t>
-  </si>
-  <si>
-    <t>68元新手礼包界面打开</t>
-  </si>
-  <si>
-    <t>圣物返场礼包界面打开</t>
-  </si>
-  <si>
-    <t>章节礼包界面弹出</t>
-  </si>
-  <si>
-    <t>复仇礼包界面弹出</t>
-  </si>
-  <si>
-    <t>场内高级月卡界面打开</t>
-  </si>
-  <si>
-    <t>场内至尊月卡界面打开</t>
-  </si>
-  <si>
-    <t>98元S圣物bp界面打开</t>
-  </si>
-  <si>
     <t>128元S圣物bp界面打开</t>
   </si>
   <si>
-    <t>生命周期锤子礼包界面打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelEpicFund1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelEpicFund2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备1基金界面打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备2基金界面打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeasonInBP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛季BP2级界面打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>OptionalShop</t>
+  </si>
+  <si>
+    <t>自选商店界面打开</t>
+  </si>
+  <si>
+    <t>DiamondShop</t>
+  </si>
+  <si>
+    <t>钻石大促打开</t>
+  </si>
+  <si>
+    <t>Skin98</t>
+  </si>
+  <si>
+    <t>皮肤打开</t>
+  </si>
+  <si>
+    <t>BloodlineVIP</t>
+  </si>
+  <si>
+    <t>争霸赛VIP打开</t>
+  </si>
+  <si>
+    <t>BloodlineSecretTreasure</t>
+  </si>
+  <si>
+    <t>血脉密保打开</t>
+  </si>
+  <si>
+    <t>Genie</t>
+  </si>
+  <si>
+    <t>小精灵打开</t>
+  </si>
+  <si>
+    <t>NewSignIn</t>
+  </si>
+  <si>
+    <t>每日登录面版打开</t>
+  </si>
+  <si>
+    <t>Dragon68</t>
+  </si>
+  <si>
+    <t>68元神龙礼包打开</t>
+  </si>
+  <si>
+    <t>Dragon98</t>
+  </si>
+  <si>
+    <t>98元神龙礼包打开</t>
+  </si>
+  <si>
+    <t>DragonBP328</t>
+  </si>
+  <si>
+    <t>328元神龙bp打开</t>
+  </si>
+  <si>
+    <t>KeyPromotional</t>
+  </si>
+  <si>
+    <t>钥匙大促打开</t>
+  </si>
+  <si>
+    <t>PlaygroundShop</t>
+  </si>
+  <si>
+    <t>游乐场商店打开</t>
+  </si>
+  <si>
+    <t>PenguinShop</t>
+  </si>
+  <si>
+    <t>企鹅钓鱼商店打开</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -333,7 +390,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -341,19 +397,355 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -376,34 +768,323 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -452,7 +1133,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -485,26 +1166,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -537,23 +1201,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,29 +1342,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A61ED4C-B671-0240-8594-59968558DCE8}">
-  <dimension ref="A1:C43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="247" zoomScaleNormal="247" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="21.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="42.5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -728,378 +1370,378 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>70</v>
@@ -1107,94 +1749,237 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>